--- a/API documentation-Basic_Account_Creation.xlsx
+++ b/API documentation-Basic_Account_Creation.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="129">
   <si>
     <t>Title</t>
   </si>
@@ -114,32 +114,6 @@
       <t xml:space="preserve">
       single alphabetical small letter character
       only 'm' or 'f' allowed</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>signup_secret_question_1_answer
-signup_secret_question_2_answer</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-      min 4 alphabetical characters
-      no special character allowed, no numerical character allowed</t>
     </r>
   </si>
   <si>
@@ -1812,6 +1786,58 @@
 }</t>
     </r>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">signup_secret_question_1_answer
+signup_secret_question_2_answer
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">      4-10 alphanumeric characters
+      no special character allowed, no numerical character allowed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>signup_secret_question_1_answer
+signup_secret_question_2_answer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+      4-10 alphanumeric characters
+      no special character allowed, no numerical character allowed</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -2524,7 +2550,7 @@
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
@@ -2540,11 +2566,11 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
@@ -2596,7 +2622,7 @@
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
@@ -2696,7 +2722,7 @@
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
@@ -2716,7 +2742,7 @@
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
@@ -2736,7 +2762,7 @@
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
@@ -2756,7 +2782,7 @@
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
@@ -2776,7 +2802,7 @@
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
@@ -2796,7 +2822,7 @@
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
@@ -2814,7 +2840,7 @@
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
@@ -2960,7 +2986,7 @@
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
@@ -3154,7 +3180,7 @@
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D38" s="12"/>
       <c r="E38" s="12"/>
@@ -3286,7 +3312,7 @@
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -3304,7 +3330,7 @@
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
@@ -3401,7 +3427,7 @@
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D1" s="16"/>
       <c r="E1" s="16"/>
@@ -3421,7 +3447,7 @@
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D2" s="22"/>
       <c r="E2" s="22"/>
@@ -3457,7 +3483,7 @@
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
@@ -3517,7 +3543,7 @@
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="22"/>
@@ -3641,7 +3667,7 @@
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D14" s="21"/>
       <c r="E14" s="21"/>
@@ -3659,7 +3685,7 @@
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
@@ -3773,7 +3799,7 @@
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
@@ -3887,7 +3913,7 @@
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
@@ -4001,7 +4027,7 @@
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D36" s="12"/>
       <c r="E36" s="12"/>
@@ -4115,7 +4141,7 @@
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D43" s="12"/>
       <c r="E43" s="12"/>
@@ -4229,7 +4255,7 @@
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D50" s="12"/>
       <c r="E50" s="12"/>
@@ -4343,7 +4369,7 @@
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D57" s="12"/>
       <c r="E57" s="12"/>
@@ -4457,7 +4483,7 @@
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D64" s="12"/>
       <c r="E64" s="12"/>
@@ -4573,7 +4599,7 @@
       </c>
       <c r="B71" s="3"/>
       <c r="C71" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D71" s="20"/>
       <c r="E71" s="20"/>
@@ -4591,7 +4617,7 @@
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D72" s="12"/>
       <c r="E72" s="12"/>
@@ -4868,7 +4894,7 @@
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D1" s="16"/>
       <c r="E1" s="16"/>
@@ -4888,7 +4914,7 @@
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D2" s="22"/>
       <c r="E2" s="22"/>
@@ -4924,7 +4950,7 @@
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
@@ -4944,7 +4970,7 @@
       </c>
       <c r="B5" s="42"/>
       <c r="C5" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D5" s="24"/>
       <c r="E5" s="24"/>
@@ -4978,7 +5004,7 @@
       <c r="A7" s="43"/>
       <c r="B7" s="44"/>
       <c r="C7" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
@@ -5124,7 +5150,7 @@
       <c r="A16" s="43"/>
       <c r="B16" s="44"/>
       <c r="C16" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
@@ -5386,7 +5412,7 @@
       <c r="A32" s="43"/>
       <c r="B32" s="44"/>
       <c r="C32" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
@@ -5518,7 +5544,7 @@
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D39" s="21"/>
       <c r="E39" s="21"/>
@@ -5536,7 +5562,7 @@
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D40" s="12"/>
       <c r="E40" s="12"/>
@@ -5650,7 +5676,7 @@
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D47" s="12"/>
       <c r="E47" s="12"/>
@@ -5764,7 +5790,7 @@
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D54" s="12"/>
       <c r="E54" s="12"/>
@@ -5878,7 +5904,7 @@
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D61" s="12"/>
       <c r="E61" s="12"/>
@@ -5992,7 +6018,7 @@
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D68" s="12"/>
       <c r="E68" s="12"/>
@@ -6106,7 +6132,7 @@
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D75" s="12"/>
       <c r="E75" s="12"/>
@@ -6220,7 +6246,7 @@
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D82" s="12"/>
       <c r="E82" s="12"/>
@@ -6334,7 +6360,7 @@
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D89" s="12"/>
       <c r="E89" s="12"/>
@@ -6450,7 +6476,7 @@
       </c>
       <c r="B96" s="3"/>
       <c r="C96" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D96" s="20"/>
       <c r="E96" s="20"/>
@@ -6468,7 +6494,7 @@
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D97" s="12"/>
       <c r="E97" s="12"/>
@@ -6670,7 +6696,7 @@
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D1" s="16"/>
       <c r="E1" s="16"/>
@@ -6690,7 +6716,7 @@
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D2" s="22"/>
       <c r="E2" s="22"/>
@@ -6726,7 +6752,7 @@
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
@@ -6786,7 +6812,7 @@
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="22"/>
@@ -6870,7 +6896,7 @@
       </c>
       <c r="B12" s="17"/>
       <c r="C12" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D12" s="16"/>
       <c r="E12" s="16"/>
@@ -6910,7 +6936,7 @@
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D14" s="21"/>
       <c r="E14" s="21"/>
@@ -6928,7 +6954,7 @@
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
@@ -7042,7 +7068,7 @@
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
@@ -7156,7 +7182,7 @@
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
@@ -7270,7 +7296,7 @@
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D36" s="12"/>
       <c r="E36" s="12"/>
@@ -7384,7 +7410,7 @@
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D43" s="12"/>
       <c r="E43" s="12"/>
@@ -7498,7 +7524,7 @@
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D50" s="12"/>
       <c r="E50" s="12"/>
@@ -7612,7 +7638,7 @@
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D57" s="12"/>
       <c r="E57" s="12"/>
@@ -7726,7 +7752,7 @@
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D64" s="12"/>
       <c r="E64" s="12"/>
@@ -7842,7 +7868,7 @@
       </c>
       <c r="B71" s="3"/>
       <c r="C71" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D71" s="20"/>
       <c r="E71" s="20"/>
@@ -7860,7 +7886,7 @@
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D72" s="12"/>
       <c r="E72" s="12"/>
@@ -8073,7 +8099,7 @@
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D1" s="16"/>
       <c r="E1" s="16"/>
@@ -8093,7 +8119,7 @@
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D2" s="22"/>
       <c r="E2" s="22"/>
@@ -8129,7 +8155,7 @@
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
@@ -8189,7 +8215,7 @@
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="22"/>
@@ -8313,7 +8339,7 @@
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D14" s="21"/>
       <c r="E14" s="21"/>
@@ -8331,7 +8357,7 @@
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
@@ -8445,7 +8471,7 @@
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
@@ -8559,7 +8585,7 @@
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
@@ -8673,7 +8699,7 @@
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D36" s="12"/>
       <c r="E36" s="12"/>
@@ -8787,7 +8813,7 @@
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D43" s="12"/>
       <c r="E43" s="12"/>
@@ -8903,7 +8929,7 @@
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D50" s="20"/>
       <c r="E50" s="20"/>
@@ -8921,7 +8947,7 @@
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D51" s="12"/>
       <c r="E51" s="12"/>
@@ -9163,7 +9189,7 @@
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D1" s="16"/>
       <c r="E1" s="16"/>
@@ -9183,7 +9209,7 @@
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D2" s="22"/>
       <c r="E2" s="22"/>
@@ -9219,7 +9245,7 @@
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
@@ -9239,7 +9265,7 @@
       </c>
       <c r="B5" s="42"/>
       <c r="C5" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D5" s="24"/>
       <c r="E5" s="24"/>
@@ -9273,7 +9299,7 @@
       <c r="A7" s="43"/>
       <c r="B7" s="44"/>
       <c r="C7" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
@@ -9419,7 +9445,7 @@
       <c r="A16" s="43"/>
       <c r="B16" s="44"/>
       <c r="C16" s="7" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
@@ -9567,7 +9593,7 @@
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D24" s="21"/>
       <c r="E24" s="21"/>
@@ -9585,7 +9611,7 @@
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
@@ -9699,7 +9725,7 @@
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
@@ -9813,7 +9839,7 @@
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D39" s="12"/>
       <c r="E39" s="12"/>
@@ -9927,7 +9953,7 @@
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D46" s="12"/>
       <c r="E46" s="12"/>
@@ -10041,7 +10067,7 @@
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D53" s="12"/>
       <c r="E53" s="12"/>
@@ -10155,7 +10181,7 @@
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D60" s="12"/>
       <c r="E60" s="12"/>
@@ -10271,7 +10297,7 @@
       </c>
       <c r="B67" s="3"/>
       <c r="C67" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D67" s="20"/>
       <c r="E67" s="20"/>
@@ -10289,7 +10315,7 @@
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D68" s="12"/>
       <c r="E68" s="12"/>
@@ -10480,6 +10506,7 @@
     <mergeCell ref="A24:B66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10502,7 +10529,7 @@
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D1" s="16"/>
       <c r="E1" s="16"/>
@@ -10522,7 +10549,7 @@
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D2" s="22"/>
       <c r="E2" s="22"/>
@@ -10558,7 +10585,7 @@
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
@@ -10678,7 +10705,7 @@
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
@@ -10696,7 +10723,7 @@
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
@@ -10917,7 +10944,7 @@
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1" s="16"/>
       <c r="E1" s="16"/>
@@ -10937,7 +10964,7 @@
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D2" s="19"/>
       <c r="E2" s="19"/>
@@ -10973,7 +11000,7 @@
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
@@ -11093,7 +11120,7 @@
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -11111,7 +11138,7 @@
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
@@ -11227,7 +11254,7 @@
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D18" s="20"/>
       <c r="E18" s="20"/>
@@ -11245,7 +11272,7 @@
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
@@ -11549,11 +11576,11 @@
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D38" s="16"/>
       <c r="E38" s="16"/>
@@ -11571,7 +11598,7 @@
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D39" s="12"/>
       <c r="E39" s="12"/>
@@ -11765,7 +11792,7 @@
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D1" s="16"/>
       <c r="E1" s="16"/>
@@ -11785,7 +11812,7 @@
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D2" s="22"/>
       <c r="E2" s="22"/>
@@ -11821,7 +11848,7 @@
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
@@ -11841,7 +11868,7 @@
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D5" s="24"/>
       <c r="E5" s="24"/>
@@ -11875,7 +11902,7 @@
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
@@ -12021,7 +12048,7 @@
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
@@ -12283,7 +12310,7 @@
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
@@ -12349,7 +12376,7 @@
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="7" t="s">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
@@ -12497,7 +12524,7 @@
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D44" s="21"/>
       <c r="E44" s="21"/>
@@ -12515,7 +12542,7 @@
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D45" s="12"/>
       <c r="E45" s="12"/>
@@ -12629,7 +12656,7 @@
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D52" s="12"/>
       <c r="E52" s="12"/>
@@ -12743,7 +12770,7 @@
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D59" s="12"/>
       <c r="E59" s="12"/>
@@ -12857,7 +12884,7 @@
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D66" s="12"/>
       <c r="E66" s="12"/>
@@ -12973,7 +13000,7 @@
       </c>
       <c r="B73" s="3"/>
       <c r="C73" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D73" s="20"/>
       <c r="E73" s="20"/>
@@ -12991,7 +13018,7 @@
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D74" s="12"/>
       <c r="E74" s="12"/>
@@ -13207,7 +13234,7 @@
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D1" s="16"/>
       <c r="E1" s="16"/>
@@ -13227,7 +13254,7 @@
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D2" s="22"/>
       <c r="E2" s="22"/>
@@ -13263,7 +13290,7 @@
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
@@ -13323,7 +13350,7 @@
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="22"/>
@@ -13415,7 +13442,7 @@
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12" s="21"/>
       <c r="E12" s="21"/>
@@ -13433,7 +13460,7 @@
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
@@ -13547,7 +13574,7 @@
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
@@ -13661,7 +13688,7 @@
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
@@ -13775,7 +13802,7 @@
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D34" s="12"/>
       <c r="E34" s="12"/>
@@ -13889,7 +13916,7 @@
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D41" s="12"/>
       <c r="E41" s="12"/>
@@ -14003,7 +14030,7 @@
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D48" s="12"/>
       <c r="E48" s="12"/>
@@ -14119,7 +14146,7 @@
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D55" s="20"/>
       <c r="E55" s="20"/>
@@ -14137,7 +14164,7 @@
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D56" s="12"/>
       <c r="E56" s="12"/>
@@ -14297,11 +14324,11 @@
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
@@ -14403,7 +14430,7 @@
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D1" s="16"/>
       <c r="E1" s="16"/>
@@ -14423,7 +14450,7 @@
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D2" s="22"/>
       <c r="E2" s="22"/>
@@ -14459,7 +14486,7 @@
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
@@ -14519,7 +14546,7 @@
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="22"/>
@@ -14611,7 +14638,7 @@
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12" s="21"/>
       <c r="E12" s="21"/>
@@ -14629,7 +14656,7 @@
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
@@ -14743,7 +14770,7 @@
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
@@ -14857,7 +14884,7 @@
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
@@ -14971,7 +14998,7 @@
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D34" s="12"/>
       <c r="E34" s="12"/>
@@ -15085,7 +15112,7 @@
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D41" s="12"/>
       <c r="E41" s="12"/>
@@ -15199,7 +15226,7 @@
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D48" s="12"/>
       <c r="E48" s="12"/>
@@ -15315,7 +15342,7 @@
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D55" s="20"/>
       <c r="E55" s="20"/>
@@ -15333,7 +15360,7 @@
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D56" s="12"/>
       <c r="E56" s="12"/>
@@ -15493,11 +15520,11 @@
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
@@ -15598,7 +15625,7 @@
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D1" s="16"/>
       <c r="E1" s="16"/>
@@ -15618,7 +15645,7 @@
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D2" s="22"/>
       <c r="E2" s="22"/>
@@ -15654,7 +15681,7 @@
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
@@ -15714,7 +15741,7 @@
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="22"/>
@@ -15854,7 +15881,7 @@
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D15" s="21"/>
       <c r="E15" s="21"/>
@@ -15872,7 +15899,7 @@
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
@@ -15986,7 +16013,7 @@
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
@@ -16100,7 +16127,7 @@
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
@@ -16214,7 +16241,7 @@
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D37" s="12"/>
       <c r="E37" s="12"/>
@@ -16328,7 +16355,7 @@
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D44" s="12"/>
       <c r="E44" s="12"/>
@@ -16442,7 +16469,7 @@
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D51" s="12"/>
       <c r="E51" s="12"/>
@@ -16556,7 +16583,7 @@
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D58" s="12"/>
       <c r="E58" s="12"/>
@@ -16670,7 +16697,7 @@
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D65" s="12"/>
       <c r="E65" s="12"/>
@@ -16786,7 +16813,7 @@
       </c>
       <c r="B72" s="3"/>
       <c r="C72" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D72" s="20"/>
       <c r="E72" s="20"/>
@@ -16804,7 +16831,7 @@
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D73" s="12"/>
       <c r="E73" s="12"/>
@@ -16964,11 +16991,11 @@
     </row>
     <row r="83" spans="1:14">
       <c r="A83" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B83" s="3"/>
       <c r="C83" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D83" s="7"/>
       <c r="E83" s="7"/>
@@ -17071,7 +17098,7 @@
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D1" s="16"/>
       <c r="E1" s="16"/>
@@ -17091,7 +17118,7 @@
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2" s="22"/>
       <c r="E2" s="22"/>
@@ -17127,7 +17154,7 @@
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
@@ -17147,7 +17174,7 @@
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D5" s="24"/>
       <c r="E5" s="24"/>
@@ -17181,7 +17208,7 @@
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
@@ -17327,7 +17354,7 @@
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
@@ -17555,7 +17582,7 @@
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D29" s="21"/>
       <c r="E29" s="21"/>
@@ -17573,7 +17600,7 @@
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
@@ -17687,7 +17714,7 @@
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D37" s="12"/>
       <c r="E37" s="12"/>
@@ -17801,7 +17828,7 @@
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D44" s="12"/>
       <c r="E44" s="12"/>
@@ -17915,7 +17942,7 @@
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D51" s="12"/>
       <c r="E51" s="12"/>
@@ -18029,7 +18056,7 @@
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D58" s="12"/>
       <c r="E58" s="12"/>
@@ -18143,7 +18170,7 @@
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D65" s="12"/>
       <c r="E65" s="12"/>
@@ -18257,7 +18284,7 @@
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D72" s="12"/>
       <c r="E72" s="12"/>
@@ -18373,7 +18400,7 @@
       </c>
       <c r="B79" s="3"/>
       <c r="C79" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D79" s="20"/>
       <c r="E79" s="20"/>
@@ -18391,7 +18418,7 @@
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D80" s="12"/>
       <c r="E80" s="12"/>
@@ -18606,7 +18633,7 @@
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="49" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D1" s="50"/>
       <c r="E1" s="50"/>
@@ -18626,7 +18653,7 @@
       </c>
       <c r="B2" s="42"/>
       <c r="C2" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D2" s="24"/>
       <c r="E2" s="24"/>
@@ -18662,7 +18689,7 @@
       </c>
       <c r="B4" s="48"/>
       <c r="C4" s="49" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D4" s="50"/>
       <c r="E4" s="50"/>
@@ -18722,7 +18749,7 @@
       </c>
       <c r="B7" s="42"/>
       <c r="C7" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D7" s="24"/>
       <c r="E7" s="24"/>
@@ -18846,7 +18873,7 @@
       </c>
       <c r="B14" s="42"/>
       <c r="C14" s="52" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D14" s="53"/>
       <c r="E14" s="53"/>
@@ -18864,7 +18891,7 @@
       <c r="A15" s="43"/>
       <c r="B15" s="44"/>
       <c r="C15" s="32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
@@ -18978,7 +19005,7 @@
       <c r="A22" s="43"/>
       <c r="B22" s="44"/>
       <c r="C22" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D22" s="33"/>
       <c r="E22" s="33"/>
@@ -19092,7 +19119,7 @@
       <c r="A29" s="43"/>
       <c r="B29" s="44"/>
       <c r="C29" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D29" s="33"/>
       <c r="E29" s="33"/>
@@ -19206,7 +19233,7 @@
       <c r="A36" s="43"/>
       <c r="B36" s="44"/>
       <c r="C36" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D36" s="12"/>
       <c r="E36" s="12"/>
@@ -19320,7 +19347,7 @@
       <c r="A43" s="43"/>
       <c r="B43" s="44"/>
       <c r="C43" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D43" s="12"/>
       <c r="E43" s="12"/>
@@ -19434,7 +19461,7 @@
       <c r="A50" s="43"/>
       <c r="B50" s="44"/>
       <c r="C50" s="32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D50" s="33"/>
       <c r="E50" s="33"/>
@@ -19548,7 +19575,7 @@
       <c r="A57" s="43"/>
       <c r="B57" s="44"/>
       <c r="C57" s="32" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D57" s="33"/>
       <c r="E57" s="33"/>
@@ -19662,7 +19689,7 @@
       <c r="A64" s="43"/>
       <c r="B64" s="44"/>
       <c r="C64" s="32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D64" s="33"/>
       <c r="E64" s="33"/>
@@ -19776,7 +19803,7 @@
       <c r="A71" s="43"/>
       <c r="B71" s="44"/>
       <c r="C71" s="32" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D71" s="33"/>
       <c r="E71" s="33"/>
@@ -19890,7 +19917,7 @@
       <c r="A78" s="43"/>
       <c r="B78" s="44"/>
       <c r="C78" s="32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D78" s="33"/>
       <c r="E78" s="33"/>
@@ -20006,7 +20033,7 @@
       </c>
       <c r="B85" s="42"/>
       <c r="C85" s="29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D85" s="30"/>
       <c r="E85" s="30"/>
@@ -20024,7 +20051,7 @@
       <c r="A86" s="43"/>
       <c r="B86" s="44"/>
       <c r="C86" s="32" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D86" s="33"/>
       <c r="E86" s="33"/>
@@ -20186,7 +20213,7 @@
       <c r="A96" s="43"/>
       <c r="B96" s="44"/>
       <c r="C96" s="29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D96" s="30"/>
       <c r="E96" s="30"/>
@@ -20204,7 +20231,7 @@
       <c r="A97" s="43"/>
       <c r="B97" s="44"/>
       <c r="C97" s="32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D97" s="33"/>
       <c r="E97" s="33"/>
@@ -20421,7 +20448,7 @@
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D1" s="16"/>
       <c r="E1" s="16"/>
@@ -20441,7 +20468,7 @@
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D2" s="22"/>
       <c r="E2" s="22"/>
@@ -20477,7 +20504,7 @@
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
@@ -20537,7 +20564,7 @@
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="22"/>
@@ -20661,7 +20688,7 @@
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D14" s="21"/>
       <c r="E14" s="21"/>
@@ -20679,7 +20706,7 @@
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
@@ -20793,7 +20820,7 @@
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
@@ -20907,7 +20934,7 @@
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
@@ -21021,7 +21048,7 @@
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D36" s="12"/>
       <c r="E36" s="12"/>
@@ -21135,7 +21162,7 @@
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D43" s="12"/>
       <c r="E43" s="12"/>
@@ -21249,7 +21276,7 @@
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D50" s="12"/>
       <c r="E50" s="12"/>
@@ -21363,7 +21390,7 @@
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D57" s="12"/>
       <c r="E57" s="12"/>
@@ -21477,7 +21504,7 @@
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D64" s="12"/>
       <c r="E64" s="12"/>
@@ -21593,7 +21620,7 @@
       </c>
       <c r="B71" s="3"/>
       <c r="C71" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D71" s="20"/>
       <c r="E71" s="20"/>
@@ -21611,7 +21638,7 @@
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D72" s="12"/>
       <c r="E72" s="12"/>
